--- a/classfiers/chain/decisionTree/chain-decisionTree-results.xlsx
+++ b/classfiers/chain/decisionTree/chain-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.8143646408839779</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.7068041237113402</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.841</v>
       </c>
     </row>
   </sheetData>
